--- a/工作日志/本周工作20190422.xlsx
+++ b/工作日志/本周工作20190422.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="郑方瑞" sheetId="2" state="hidden" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>任务类型</t>
   </si>
@@ -68,10 +68,65 @@
     <t>模块</t>
   </si>
   <si>
+    <t>需求类型</t>
+  </si>
+  <si>
     <t>需求描述</t>
   </si>
   <si>
     <t>开发人员</t>
+  </si>
+  <si>
+    <t>合同申报</t>
+  </si>
+  <si>
+    <t>需求新增</t>
+  </si>
+  <si>
+    <t>校验监管资金时，首付款与最低比例比较取最大值是否已存入</t>
+  </si>
+  <si>
+    <t>需求已确认</t>
+  </si>
+  <si>
+    <t>孙明星</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>合同审核时监管资金提示信息修改</t>
+  </si>
+  <si>
+    <t>井明治</t>
+  </si>
+  <si>
+    <t>保障房信息校验时，对各种证件都有效：身份证、护照等</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>预售合同申报时添加筛选条件，销售类型（XXLX）=现售（2）、
+现售合同申报时添加筛选条件，销售类型（XXLX）=现售（1）</t>
+  </si>
+  <si>
+    <t>合同申报时，房屋用途不能从模板取</t>
+  </si>
+  <si>
+    <t>申报合同时，有跃层的户室分摊面积计算错误</t>
+  </si>
+  <si>
+    <t>合同注销</t>
+  </si>
+  <si>
+    <t>开发办查询注销详情时添加买受人身份证号码</t>
+  </si>
+  <si>
+    <t>资金监管</t>
+  </si>
+  <si>
+    <t>资金划拨时，划拨额度时扣除退房费用</t>
   </si>
   <si>
     <t>领导干部核查上报系统</t>
@@ -83,9 +138,6 @@
 </t>
   </si>
   <si>
-    <t>需求已确认</t>
-  </si>
-  <si>
     <t>贾涛、徐勇</t>
   </si>
   <si>
@@ -95,35 +147,23 @@
     <t>网站首页按静态页面出可参考，app销售统计报表改为：2019年4月13日，一手房网签，具体参考截图</t>
   </si>
   <si>
-    <t>李晓强、贾涛</t>
-  </si>
-  <si>
-    <t>合同申报</t>
-  </si>
-  <si>
-    <t>需求新增</t>
+    <t>徐勇、贾涛</t>
   </si>
   <si>
     <t>合同预定、预售合同申报、现售合同申报时，增加是开发企业是否终端申报项目信息校验：
 每月26日至次月1日之前为数据上报日，逾期未上报的系统自动禁止网签功能</t>
   </si>
   <si>
-    <t>孙明星</t>
-  </si>
-  <si>
-    <t>资金监管</t>
-  </si>
-  <si>
     <t>预售监管资金扣划管理（可以划拨所有资金）：针对法院、税务部门扣划预售监管资金的管理，监管中心操作，直接对账户资金找那个的余额和利息进行操作</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>账户资金转移管理：支持账户资金由一个账户转移到另一个账户（只支持一对一操作）
 开发商财务发起（校验是否存在正在办理的存入/支出业务如果存在不可发起，发起后账户变更为锁定状态）---》银行管理员（变更银行账户、重新打印监管协议）---》监管中心（重新打印监管证明、原账户注销，原账号流水信息等相关信息绑定到新账号）</t>
   </si>
   <si>
-    <t>杜保亚</t>
-  </si>
-  <si>
     <t>从业主体管理</t>
   </si>
   <si>
@@ -138,6 +178,9 @@
   <si>
     <t>开发企业终端申报项目信息功能，实现开发企业-所属区市（填写项目编号）-市级部门三级
 管理，每月26日至次月1日之前为数据上报日，各区市需要将开发企业项目编号与各区市网签系统的项目进行关联(通过项目编号)，上报的项目具体内容待定</t>
+  </si>
+  <si>
+    <t>相关流程已完成（上报内容未确定）</t>
   </si>
   <si>
     <t>企业信息更新实现开发企业-所属区市-市级部门三级管理</t>
@@ -222,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -261,6 +304,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -269,15 +340,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,112 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +433,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -414,192 +457,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -624,6 +667,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -634,21 +690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,24 +705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,7 +728,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,140 +796,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +944,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,7 +1375,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
@@ -1316,7 +1384,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1330,13 +1398,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1344,13 +1412,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1358,13 +1426,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1372,13 +1440,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1386,13 +1454,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1400,13 +1468,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1414,13 +1482,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1428,13 +1496,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1508,341 +1576,571 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="85.625" customWidth="1"/>
-    <col min="4" max="5" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6"/>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="66" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="46" customHeight="1" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="71" customHeight="1" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="57" customHeight="1" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="16" s="2" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="54" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="71" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="57" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="58" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="44" customHeight="1" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="62" customHeight="1" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="74" customHeight="1" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="62" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="74" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="C24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="118" customHeight="1" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="27" s="2" customFormat="1" ht="86" customHeight="1" spans="1:5">
+      <c r="A27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="118" customHeight="1" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="86" customHeight="1" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
+      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="68" operator="equal">
       <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+      <formula>"需求新增"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="63" operator="equal">
       <formula>"需求确认"</formula>
@@ -1857,130 +2155,116 @@
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+  <conditionalFormatting sqref="B15:B23">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="58" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="43" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B15">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="55" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B11 B12 B13 B14 B15 B16 B7:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B19 B20 B21 B22 B23 B24 B15:B18">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B18 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B26 B27">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
   </dataValidations>
